--- a/Final Presentation/Schedule - Final Partner Presentation (Revised).xlsx
+++ b/Final Presentation/Schedule - Final Partner Presentation (Revised).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Heeringa\Documents\Aurora University\2021 (Fall Semester)\CSC 4500 (Database Design &amp; Implementation)\Homework Assignments\Final Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FDC0E2-9B5B-4C3A-B555-40007477DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644A861-4BC1-4815-A11E-737C2411E7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13986" xr2:uid="{8C1DEF9D-928E-4533-863E-C088C26E53D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -211,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +227,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,25 +297,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,22 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,20 +346,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,436 +690,436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45C1271-755F-4DFD-B2E8-32C3E362ADC3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.87890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.9375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.76171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.05859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>13</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="16">
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
-        <v>13</v>
-      </c>
-      <c r="D3" s="16">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="D17" s="13">
+        <v>6</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8">
+        <v>12</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="21">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="21">
+        <v>17</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="8">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <v>10</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="10">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="13">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="12">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13">
+        <v>15</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="8">
         <v>7</v>
       </c>
-      <c r="C4" s="18">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="19">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
+        <v>9</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="13">
         <v>8</v>
       </c>
-      <c r="C5" s="20">
-        <v>3</v>
-      </c>
-      <c r="D5" s="21">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20">
-        <v>3</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18">
-        <v>11</v>
-      </c>
-      <c r="D7" s="16">
-        <v>11</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18">
-        <v>11</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="19">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2</v>
-      </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="20">
-        <v>2</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="16">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11">
-        <v>6</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="12">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12">
-        <v>12</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="9">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5">
-        <v>17</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="12">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="12">
-        <v>10</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="11">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11">
-        <v>15</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="12">
+      <c r="B30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="12">
         <v>7</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
-      <c r="D28" s="12">
-        <v>9</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="11">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="D30" s="13">
         <v>7</v>
       </c>
-      <c r="D30" s="11">
+      <c r="E30" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="12">
         <v>7</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1119,105 +1128,105 @@
       <c r="C32" s="2">
         <v>14</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>14</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="11">
+      <c r="A33" s="13">
         <v>11</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="12">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="13">
         <v>8</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="12">
         <v>8</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="12">
+      <c r="A35" s="8">
         <v>12</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="11">
+      <c r="A37" s="13">
         <v>13</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="12">
         <v>16</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="13">
         <v>16</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="12">
         <v>16</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="8">
+      <c r="A39" s="5">
         <v>14</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>18</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1226,7 +1235,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -1290,7 +1299,9 @@
     <hyperlink ref="E35" r:id="rId14" xr:uid="{2EE228B1-A7A7-4DA2-B0FD-9B1E93AD38E3}"/>
     <hyperlink ref="E37" r:id="rId15" xr:uid="{7C6BE283-E00D-4AE9-91AE-BBF04C2838DB}"/>
     <hyperlink ref="E12" r:id="rId16" xr:uid="{7304CCA4-E086-4A4C-AF9F-F1016451A7F2}"/>
+    <hyperlink ref="E22" r:id="rId17" xr:uid="{57A35AF4-797A-4180-8B4A-BD847403B1D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId18"/>
 </worksheet>
 </file>